--- a/StructureDefinition-ext-R5-DeviceDispense.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDispense.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -561,7 +561,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:statusReason.extension:concept.id</t>
@@ -592,7 +592,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-DeviceDispense.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4672" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4672" uniqueCount="397">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -388,6 +388,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.basedOn</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -435,6 +438,9 @@
     <t>Extension.extension:partOf.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.partOf</t>
+  </si>
+  <si>
     <t>Extension.extension:partOf.value[x]</t>
   </si>
   <si>
@@ -469,6 +475,9 @@
     <t>Extension.extension:status.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.status</t>
+  </si>
+  <si>
     <t>Extension.extension:status.value[x]</t>
   </si>
   <si>
@@ -560,8 +569,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:statusReason.extension:concept.id</t>
@@ -592,8 +601,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:statusReason.extension:reference.id</t>
@@ -615,6 +624,9 @@
     <t>Extension.extension:statusReason.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.statusReason</t>
+  </si>
+  <si>
     <t>Extension.extension:statusReason.value[x]</t>
   </si>
   <si>
@@ -649,6 +661,9 @@
     <t>Extension.extension:category.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.category</t>
+  </si>
+  <si>
     <t>Extension.extension:category.value[x]</t>
   </si>
   <si>
@@ -725,6 +740,9 @@
     <t>Extension.extension:device.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.device</t>
+  </si>
+  <si>
     <t>Extension.extension:device.value[x]</t>
   </si>
   <si>
@@ -750,6 +768,9 @@
   </si>
   <si>
     <t>Extension.extension:receiver.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.receiver</t>
   </si>
   <si>
     <t>Extension.extension:receiver.value[x]</t>
@@ -783,6 +804,9 @@
     <t>Extension.extension:encounter.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.encounter</t>
+  </si>
+  <si>
     <t>Extension.extension:encounter.value[x]</t>
   </si>
   <si>
@@ -814,6 +838,9 @@
     <t>Extension.extension:supportingInformation.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.supportingInformation</t>
+  </si>
+  <si>
     <t>Extension.extension:supportingInformation.value[x]</t>
   </si>
   <si>
@@ -866,6 +893,9 @@
     <t>Extension.extension:performer.extension:function.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.performer.function</t>
+  </si>
+  <si>
     <t>Extension.extension:performer.extension:function.value[x]</t>
   </si>
   <si>
@@ -891,6 +921,9 @@
   </si>
   <si>
     <t>Extension.extension:performer.extension:actor.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.performer.actor</t>
   </si>
   <si>
     <t>Extension.extension:performer.extension:actor.value[x]</t>
@@ -933,6 +966,9 @@
     <t>Extension.extension:location.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.location</t>
+  </si>
+  <si>
     <t>Extension.extension:location.value[x]</t>
   </si>
   <si>
@@ -964,6 +1000,9 @@
     <t>Extension.extension:type.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.type</t>
+  </si>
+  <si>
     <t>Extension.extension:type.value[x]</t>
   </si>
   <si>
@@ -989,6 +1028,9 @@
   </si>
   <si>
     <t>Extension.extension:quantity.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.quantity</t>
   </si>
   <si>
     <t>Extension.extension:quantity.value[x]</t>
@@ -1022,6 +1064,9 @@
     <t>Extension.extension:preparedDate.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.preparedDate</t>
+  </si>
+  <si>
     <t>Extension.extension:preparedDate.value[x]</t>
   </si>
   <si>
@@ -1053,6 +1098,9 @@
     <t>Extension.extension:whenHandedOver.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.whenHandedOver</t>
+  </si>
+  <si>
     <t>Extension.extension:whenHandedOver.value[x]</t>
   </si>
   <si>
@@ -1080,6 +1128,9 @@
     <t>Extension.extension:destination.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.destination</t>
+  </si>
+  <si>
     <t>Extension.extension:destination.value[x]</t>
   </si>
   <si>
@@ -1105,6 +1156,9 @@
   </si>
   <si>
     <t>Extension.extension:note.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.note</t>
   </si>
   <si>
     <t>Extension.extension:note.value[x]</t>
@@ -1141,6 +1195,9 @@
     <t>Extension.extension:usageInstruction.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.usageInstruction</t>
+  </si>
+  <si>
     <t>Extension.extension:usageInstruction.value[x]</t>
   </si>
   <si>
@@ -1173,6 +1230,9 @@
   </si>
   <si>
     <t>Extension.extension:eventHistory.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.eventHistory</t>
   </si>
   <si>
     <t>Extension.extension:eventHistory.value[x]</t>
@@ -2325,7 +2385,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2367,7 +2427,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -2382,15 +2442,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2413,7 +2473,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -2470,7 +2530,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2482,21 +2542,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2521,14 +2581,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2597,7 +2657,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2700,7 +2760,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2805,7 +2865,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2848,7 +2908,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2890,7 +2950,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2905,15 +2965,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2936,13 +2996,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2993,7 +3053,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3005,21 +3065,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3044,16 +3104,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3122,7 +3182,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -3225,7 +3285,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -3330,7 +3390,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -3373,7 +3433,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3415,7 +3475,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3430,15 +3490,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3461,16 +3521,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3520,7 +3580,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3532,21 +3592,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3571,14 +3631,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3647,7 +3707,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3750,7 +3810,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3853,13 +3913,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3884,10 +3944,10 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3958,10 +4018,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4061,10 +4121,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4166,10 +4226,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4209,7 +4269,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -4251,7 +4311,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -4266,15 +4326,15 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4300,13 +4360,13 @@
         <v>87</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4314,7 +4374,7 @@
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>77</v>
@@ -4356,7 +4416,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4368,21 +4428,21 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4407,14 +4467,14 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4483,10 +4543,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4586,10 +4646,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4691,10 +4751,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4734,7 +4794,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4776,7 +4836,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
@@ -4791,15 +4851,15 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4822,13 +4882,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4879,7 +4939,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -4891,21 +4951,21 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4930,14 +4990,14 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5006,10 +5066,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5109,10 +5169,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5214,10 +5274,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5257,7 +5317,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -5299,7 +5359,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
@@ -5314,15 +5374,15 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5345,13 +5405,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5402,7 +5462,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5414,15 +5474,15 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5465,7 +5525,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5507,7 +5567,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -5522,15 +5582,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5553,13 +5613,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5610,7 +5670,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5622,21 +5682,21 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5661,16 +5721,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5739,7 +5799,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -5842,7 +5902,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -5947,7 +6007,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -5990,7 +6050,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6032,7 +6092,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -6047,15 +6107,15 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6078,16 +6138,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6137,7 +6197,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6149,21 +6209,21 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6188,14 +6248,14 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6264,7 +6324,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -6367,7 +6427,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -6470,13 +6530,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6501,10 +6561,10 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6575,10 +6635,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6678,10 +6738,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6783,10 +6843,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6826,7 +6886,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6868,7 +6928,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
@@ -6883,15 +6943,15 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6917,13 +6977,13 @@
         <v>87</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -6931,7 +6991,7 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>77</v>
@@ -6973,7 +7033,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -6985,21 +7045,21 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -7024,14 +7084,14 @@
         <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7100,10 +7160,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7203,10 +7263,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7308,10 +7368,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7351,7 +7411,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7393,7 +7453,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>86</v>
@@ -7408,15 +7468,15 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7439,13 +7499,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7496,7 +7556,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7508,21 +7568,21 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7547,14 +7607,14 @@
         <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7623,10 +7683,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7726,10 +7786,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7831,10 +7891,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7874,7 +7934,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -7916,7 +7976,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>86</v>
@@ -7931,15 +7991,15 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7962,13 +8022,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8019,7 +8079,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8031,15 +8091,15 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -8082,7 +8142,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8124,7 +8184,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>86</v>
@@ -8139,15 +8199,15 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8170,13 +8230,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8227,7 +8287,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8239,21 +8299,21 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8278,14 +8338,14 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8354,7 +8414,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>106</v>
@@ -8457,7 +8517,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>108</v>
@@ -8562,7 +8622,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>114</v>
@@ -8605,7 +8665,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8647,7 +8707,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>86</v>
@@ -8662,15 +8722,15 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8693,13 +8753,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8750,7 +8810,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -8762,21 +8822,21 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8801,14 +8861,14 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8877,7 +8937,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>106</v>
@@ -8980,7 +9040,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>108</v>
@@ -9085,7 +9145,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>114</v>
@@ -9128,7 +9188,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9170,7 +9230,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>86</v>
@@ -9185,15 +9245,15 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9216,13 +9276,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="M74" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9273,7 +9333,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9285,21 +9345,21 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9324,14 +9384,14 @@
         <v>94</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9400,7 +9460,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>106</v>
@@ -9503,7 +9563,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>108</v>
@@ -9608,7 +9668,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>114</v>
@@ -9651,7 +9711,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9693,7 +9753,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>86</v>
@@ -9708,15 +9768,15 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9739,13 +9799,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9796,7 +9856,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -9808,21 +9868,21 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -9847,14 +9907,14 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -9923,7 +9983,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>106</v>
@@ -10026,7 +10086,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>108</v>
@@ -10129,13 +10189,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10160,14 +10220,14 @@
         <v>94</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10236,10 +10296,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10339,10 +10399,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10444,10 +10504,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10487,7 +10547,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10529,7 +10589,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>86</v>
@@ -10544,15 +10604,15 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10575,13 +10635,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10632,7 +10692,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -10644,21 +10704,21 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10683,14 +10743,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10759,10 +10819,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10862,10 +10922,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10967,10 +11027,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11010,7 +11070,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11052,7 +11112,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>86</v>
@@ -11067,15 +11127,15 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11098,13 +11158,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11155,7 +11215,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -11167,15 +11227,15 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>114</v>
@@ -11218,7 +11278,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11260,7 +11320,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>86</v>
@@ -11275,15 +11335,15 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11306,13 +11366,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11363,7 +11423,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -11375,21 +11435,21 @@
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11414,14 +11474,14 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -11490,7 +11550,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>106</v>
@@ -11593,7 +11653,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>108</v>
@@ -11698,7 +11758,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>114</v>
@@ -11741,7 +11801,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -11783,7 +11843,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>86</v>
@@ -11798,15 +11858,15 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -11829,13 +11889,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -11886,7 +11946,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -11898,21 +11958,21 @@
         <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -11937,14 +11997,14 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12013,7 +12073,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>106</v>
@@ -12116,7 +12176,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>108</v>
@@ -12221,7 +12281,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>114</v>
@@ -12264,7 +12324,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12306,7 +12366,7 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>86</v>
@@ -12321,15 +12381,15 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12352,13 +12412,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12409,7 +12469,7 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -12421,21 +12481,21 @@
         <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -12460,14 +12520,14 @@
         <v>94</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -12536,7 +12596,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>106</v>
@@ -12639,7 +12699,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>108</v>
@@ -12744,7 +12804,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>114</v>
@@ -12787,7 +12847,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -12829,7 +12889,7 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>86</v>
@@ -12844,15 +12904,15 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -12875,13 +12935,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -12932,7 +12992,7 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -12944,21 +13004,21 @@
         <v>77</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
@@ -12983,14 +13043,14 @@
         <v>94</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -13059,7 +13119,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>106</v>
@@ -13162,7 +13222,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>108</v>
@@ -13267,7 +13327,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>114</v>
@@ -13310,7 +13370,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -13352,7 +13412,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>86</v>
@@ -13367,15 +13427,15 @@
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13398,13 +13458,13 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -13455,7 +13515,7 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -13467,21 +13527,21 @@
         <v>77</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>77</v>
@@ -13506,14 +13566,14 @@
         <v>94</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -13582,7 +13642,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>106</v>
@@ -13685,7 +13745,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>108</v>
@@ -13790,7 +13850,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>114</v>
@@ -13833,7 +13893,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>77</v>
@@ -13875,7 +13935,7 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>86</v>
@@ -13890,15 +13950,15 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -13921,13 +13981,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -13978,7 +14038,7 @@
         <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>78</v>
@@ -13990,21 +14050,21 @@
         <v>77</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>77</v>
@@ -14029,14 +14089,14 @@
         <v>94</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>77</v>
@@ -14105,7 +14165,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>106</v>
@@ -14208,7 +14268,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>108</v>
@@ -14313,7 +14373,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>114</v>
@@ -14356,7 +14416,7 @@
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" t="s" s="2">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>77</v>
@@ -14398,7 +14458,7 @@
         <v>77</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>86</v>
@@ -14413,15 +14473,15 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -14444,13 +14504,13 @@
         <v>77</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -14501,7 +14561,7 @@
         <v>77</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>78</v>
@@ -14513,21 +14573,21 @@
         <v>77</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>77</v>
@@ -14552,14 +14612,14 @@
         <v>94</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>77</v>
@@ -14628,7 +14688,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>106</v>
@@ -14731,7 +14791,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>108</v>
@@ -14836,7 +14896,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>114</v>
@@ -14879,7 +14939,7 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>77</v>
@@ -14921,7 +14981,7 @@
         <v>77</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>86</v>
@@ -14936,15 +14996,15 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -14967,13 +15027,13 @@
         <v>77</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -15024,7 +15084,7 @@
         <v>77</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>78</v>
@@ -15036,21 +15096,21 @@
         <v>77</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>77</v>
@@ -15075,16 +15135,16 @@
         <v>94</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>77</v>
@@ -15153,7 +15213,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>106</v>
@@ -15256,7 +15316,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>108</v>
@@ -15361,7 +15421,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>114</v>
@@ -15404,7 +15464,7 @@
       </c>
       <c r="Q133" s="2"/>
       <c r="R133" t="s" s="2">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="S133" t="s" s="2">
         <v>77</v>
@@ -15446,7 +15506,7 @@
         <v>77</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>86</v>
@@ -15461,15 +15521,15 @@
         <v>77</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -15492,16 +15552,16 @@
         <v>77</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
@@ -15551,7 +15611,7 @@
         <v>77</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>78</v>
@@ -15563,21 +15623,21 @@
         <v>77</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>77</v>
@@ -15602,16 +15662,16 @@
         <v>94</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>77</v>
@@ -15680,7 +15740,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>106</v>
@@ -15783,7 +15843,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>108</v>
@@ -15888,7 +15948,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>114</v>
@@ -15931,7 +15991,7 @@
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" t="s" s="2">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>77</v>
@@ -15973,7 +16033,7 @@
         <v>77</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>86</v>
@@ -15988,15 +16048,15 @@
         <v>77</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16019,16 +16079,16 @@
         <v>77</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -16078,7 +16138,7 @@
         <v>77</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>78</v>
@@ -16090,18 +16150,18 @@
         <v>77</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16183,7 +16243,7 @@
         <v>77</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>86</v>
@@ -16198,15 +16258,15 @@
         <v>77</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -16229,13 +16289,13 @@
         <v>77</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -16286,7 +16346,7 @@
         <v>77</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>78</v>
@@ -16298,10 +16358,10 @@
         <v>77</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-DeviceDispense.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDispense.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -403,7 +403,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CarePlan|0.0.1-snapshot-3|CarePlan|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceRequest|0.0.1-snapshot-3|DeviceRequest|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CarePlan|CarePlan|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceRequest|DeviceRequest)
 </t>
   </si>
   <si>
@@ -444,7 +444,7 @@
     <t>Extension.extension:partOf.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|0.0.1-snapshot-3|Procedure|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|Procedure)
 </t>
   </si>
   <si>
@@ -569,8 +569,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:statusReason.extension:concept.id</t>
@@ -601,8 +600,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:statusReason.extension:reference.id</t>
@@ -617,7 +615,7 @@
     <t>Extension.extension:statusReason.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DetectedIssue|0.0.1-snapshot-3|DetectedIssue|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DetectedIssue|DetectedIssue)
 </t>
   </si>
   <si>
@@ -733,7 +731,7 @@
     <t>Extension.extension:device.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition)
 </t>
   </si>
   <si>
@@ -776,7 +774,7 @@
     <t>Extension.extension:receiver.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole)
 </t>
   </si>
   <si>
@@ -810,7 +808,7 @@
     <t>Extension.extension:encounter.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|0.0.1-snapshot-3|Encounter|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|Encounter)
 </t>
   </si>
   <si>
@@ -844,7 +842,7 @@
     <t>Extension.extension:supportingInformation.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 </t>
   </si>
   <si>
@@ -929,7 +927,7 @@
     <t>Extension.extension:performer.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam)
 </t>
   </si>
   <si>
@@ -972,7 +970,7 @@
     <t>Extension.extension:location.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)
 </t>
   </si>
   <si>
@@ -1036,7 +1034,7 @@
     <t>Extension.extension:quantity.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1238,7 +1236,7 @@
     <t>Extension.extension:eventHistory.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Provenance|0.0.1-snapshot-3|Provenance|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Provenance|Provenance)
 </t>
   </si>
 </sst>

--- a/StructureDefinition-ext-R5-DeviceDispense.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4672" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4671" uniqueCount="402">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -403,7 +403,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CarePlan|CarePlan|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceRequest|DeviceRequest)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CarePlan|0.0.1-snapshot-3|CarePlan|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceRequest|0.0.1-snapshot-3|DeviceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -444,7 +444,7 @@
     <t>Extension.extension:partOf.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|Procedure)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|0.0.1-snapshot-3|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -485,6 +485,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Describes the lifecycle of the dispense.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-devicedispense-status-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:statusReason</t>
   </si>
   <si>
@@ -569,7 +578,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:statusReason.extension:concept.id</t>
@@ -588,6 +597,12 @@
 </t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-devicedispense-status-reason-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:statusReason.extension:reference</t>
   </si>
   <si>
@@ -600,7 +615,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:statusReason.extension:reference.id</t>
@@ -615,7 +630,7 @@
     <t>Extension.extension:statusReason.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DetectedIssue|DetectedIssue)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-DetectedIssue|0.0.1-snapshot-3|DetectedIssue|4.0.1)
 </t>
   </si>
   <si>
@@ -731,7 +746,7 @@
     <t>Extension.extension:device.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -774,7 +789,7 @@
     <t>Extension.extension:receiver.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -808,7 +823,7 @@
     <t>Extension.extension:encounter.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|Encounter)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Encounter|0.0.1-snapshot-3|Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -842,7 +857,7 @@
     <t>Extension.extension:supportingInformation.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -927,7 +942,7 @@
     <t>Extension.extension:performer.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -970,7 +985,7 @@
     <t>Extension.extension:location.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1034,7 +1049,7 @@
     <t>Extension.extension:quantity.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1236,7 +1251,7 @@
     <t>Extension.extension:eventHistory.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Provenance|Provenance)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Provenance|0.0.1-snapshot-3|Provenance|4.0.1)
 </t>
   </si>
 </sst>
@@ -1587,8 +1602,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="31.9453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.50390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3554,13 +3569,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3598,13 +3613,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3629,14 +3644,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3705,7 +3720,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3808,7 +3823,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3911,13 +3926,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3942,10 +3957,10 @@
         <v>94</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4016,10 +4031,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4119,10 +4134,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4224,10 +4239,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4267,7 +4282,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -4329,10 +4344,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4358,13 +4373,13 @@
         <v>87</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4372,7 +4387,7 @@
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>77</v>
@@ -4434,13 +4449,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>77</v>
@@ -4465,14 +4480,14 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4541,10 +4556,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4644,10 +4659,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4749,10 +4764,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4792,7 +4807,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>77</v>
@@ -4854,10 +4869,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4880,13 +4895,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4913,13 +4928,11 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -4957,13 +4970,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4988,14 +5001,14 @@
         <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5064,10 +5077,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5167,10 +5180,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5272,10 +5285,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5315,7 +5328,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -5377,10 +5390,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5403,13 +5416,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5480,7 +5493,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5523,7 +5536,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5585,7 +5598,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5611,13 +5624,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5688,13 +5701,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5719,16 +5732,16 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5797,7 +5810,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -5900,7 +5913,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -6005,7 +6018,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -6048,7 +6061,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6110,7 +6123,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -6136,16 +6149,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6215,13 +6228,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6246,14 +6259,14 @@
         <v>94</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6322,7 +6335,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -6425,7 +6438,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -6528,13 +6541,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6559,10 +6572,10 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6633,10 +6646,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6736,10 +6749,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6841,10 +6854,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6884,7 +6897,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6946,10 +6959,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6975,13 +6988,13 @@
         <v>87</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -6989,7 +7002,7 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>77</v>
@@ -7051,13 +7064,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -7082,14 +7095,14 @@
         <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7158,10 +7171,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7261,10 +7274,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7366,10 +7379,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7409,7 +7422,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7471,10 +7484,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7497,13 +7510,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7574,13 +7587,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7605,14 +7618,14 @@
         <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7681,10 +7694,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7784,10 +7797,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7889,10 +7902,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7932,7 +7945,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -7994,10 +8007,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8020,13 +8033,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8097,7 +8110,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -8140,7 +8153,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8202,7 +8215,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -8228,13 +8241,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8305,13 +8318,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8336,14 +8349,14 @@
         <v>94</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8412,7 +8425,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>106</v>
@@ -8515,7 +8528,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>108</v>
@@ -8620,7 +8633,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>114</v>
@@ -8663,7 +8676,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8725,7 +8738,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>123</v>
@@ -8751,13 +8764,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8828,13 +8841,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8859,14 +8872,14 @@
         <v>94</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -8935,7 +8948,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>106</v>
@@ -9038,7 +9051,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>108</v>
@@ -9143,7 +9156,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>114</v>
@@ -9186,7 +9199,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9248,7 +9261,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>123</v>
@@ -9274,13 +9287,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9351,13 +9364,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9382,14 +9395,14 @@
         <v>94</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9458,7 +9471,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>106</v>
@@ -9561,7 +9574,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>108</v>
@@ -9666,7 +9679,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>114</v>
@@ -9709,7 +9722,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9771,7 +9784,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>123</v>
@@ -9797,13 +9810,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9874,13 +9887,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -9905,14 +9918,14 @@
         <v>94</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -9981,7 +9994,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>106</v>
@@ -10084,7 +10097,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>108</v>
@@ -10187,13 +10200,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10218,14 +10231,14 @@
         <v>94</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10294,10 +10307,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10397,10 +10410,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10502,10 +10515,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10545,7 +10558,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10607,10 +10620,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10633,13 +10646,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10710,13 +10723,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10741,14 +10754,14 @@
         <v>94</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10817,10 +10830,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10920,10 +10933,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11025,10 +11038,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11068,7 +11081,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11130,10 +11143,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11156,13 +11169,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11233,7 +11246,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>114</v>
@@ -11276,7 +11289,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11338,7 +11351,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>123</v>
@@ -11364,13 +11377,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11441,13 +11454,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11472,14 +11485,14 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -11548,7 +11561,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>106</v>
@@ -11651,7 +11664,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>108</v>
@@ -11756,7 +11769,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>114</v>
@@ -11799,7 +11812,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -11861,7 +11874,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>123</v>
@@ -11887,13 +11900,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -11964,13 +11977,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -11995,14 +12008,14 @@
         <v>94</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12071,7 +12084,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>106</v>
@@ -12174,7 +12187,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>108</v>
@@ -12279,7 +12292,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>114</v>
@@ -12322,7 +12335,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12384,7 +12397,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>123</v>
@@ -12410,13 +12423,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12487,13 +12500,13 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>77</v>
@@ -12518,14 +12531,14 @@
         <v>94</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>77</v>
@@ -12594,7 +12607,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>106</v>
@@ -12697,7 +12710,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>108</v>
@@ -12802,7 +12815,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>114</v>
@@ -12845,7 +12858,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -12907,7 +12920,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>123</v>
@@ -12933,13 +12946,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13010,13 +13023,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
@@ -13041,14 +13054,14 @@
         <v>94</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -13117,7 +13130,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>106</v>
@@ -13220,7 +13233,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>108</v>
@@ -13325,7 +13338,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>114</v>
@@ -13368,7 +13381,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -13430,7 +13443,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>123</v>
@@ -13456,13 +13469,13 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -13533,13 +13546,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>77</v>
@@ -13564,14 +13577,14 @@
         <v>94</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -13640,7 +13653,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>106</v>
@@ -13743,7 +13756,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>108</v>
@@ -13848,7 +13861,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>114</v>
@@ -13891,7 +13904,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>77</v>
@@ -13953,7 +13966,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>123</v>
@@ -13979,13 +13992,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -14056,13 +14069,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>77</v>
@@ -14087,14 +14100,14 @@
         <v>94</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>77</v>
@@ -14163,7 +14176,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>106</v>
@@ -14266,7 +14279,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>108</v>
@@ -14371,7 +14384,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>114</v>
@@ -14414,7 +14427,7 @@
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>77</v>
@@ -14476,7 +14489,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>123</v>
@@ -14502,13 +14515,13 @@
         <v>77</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -14579,13 +14592,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>77</v>
@@ -14610,14 +14623,14 @@
         <v>94</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>77</v>
@@ -14686,7 +14699,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>106</v>
@@ -14789,7 +14802,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>108</v>
@@ -14894,7 +14907,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>114</v>
@@ -14937,7 +14950,7 @@
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>77</v>
@@ -14999,7 +15012,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>123</v>
@@ -15025,13 +15038,13 @@
         <v>77</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -15102,13 +15115,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>77</v>
@@ -15133,16 +15146,16 @@
         <v>94</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>77</v>
@@ -15211,7 +15224,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>106</v>
@@ -15314,7 +15327,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>108</v>
@@ -15419,7 +15432,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>114</v>
@@ -15462,7 +15475,7 @@
       </c>
       <c r="Q133" s="2"/>
       <c r="R133" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="S133" t="s" s="2">
         <v>77</v>
@@ -15524,7 +15537,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>123</v>
@@ -15550,16 +15563,16 @@
         <v>77</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
@@ -15629,13 +15642,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>77</v>
@@ -15660,16 +15673,16 @@
         <v>94</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>77</v>
@@ -15738,7 +15751,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>106</v>
@@ -15841,7 +15854,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>108</v>
@@ -15946,7 +15959,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>114</v>
@@ -15989,7 +16002,7 @@
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>77</v>
@@ -16051,7 +16064,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>123</v>
@@ -16077,16 +16090,16 @@
         <v>77</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -16287,13 +16300,13 @@
         <v>77</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
